--- a/MSE_smooth.xlsx
+++ b/MSE_smooth.xlsx
@@ -399,22 +399,22 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.000602887961318976</v>
+        <v>0.0006081147432837641</v>
       </c>
       <c r="C2">
-        <v>0.0005547364011106317</v>
+        <v>0.0005717519835683109</v>
       </c>
       <c r="D2">
-        <v>0.007552514398342498</v>
+        <v>0.007549379210224932</v>
       </c>
       <c r="E2">
-        <v>0.007607295883517684</v>
+        <v>0.007618851978828157</v>
       </c>
       <c r="F2">
-        <v>0.000510082886062834</v>
+        <v>0.0002184559416894938</v>
       </c>
       <c r="G2">
-        <v>0.0005293217098397533</v>
+        <v>0.000521190801366355</v>
       </c>
     </row>
     <row r="3">
@@ -422,22 +422,22 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.0006601561348580269</v>
+        <v>0.0008173195327553861</v>
       </c>
       <c r="C3">
-        <v>0.0005934702059447427</v>
+        <v>0.0007900152979058989</v>
       </c>
       <c r="D3">
-        <v>0.005750675351977644</v>
+        <v>0.005825035848393762</v>
       </c>
       <c r="E3">
-        <v>0.005796251349039137</v>
+        <v>0.005949191895511768</v>
       </c>
       <c r="F3">
-        <v>0.0005268949205852096</v>
+        <v>0.0003653361636882437</v>
       </c>
       <c r="G3">
-        <v>0.0006933013278474782</v>
+        <v>0.00097725149795701</v>
       </c>
     </row>
     <row r="4">
@@ -445,22 +445,22 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0007324942052214648</v>
+        <v>0.0008992224883561991</v>
       </c>
       <c r="C4">
-        <v>0.0006516171396626806</v>
+        <v>0.0008840922889971831</v>
       </c>
       <c r="D4">
-        <v>0.004764549580435364</v>
+        <v>0.00504461839999585</v>
       </c>
       <c r="E4">
-        <v>0.00482745496406136</v>
+        <v>0.00526968311471375</v>
       </c>
       <c r="F4">
-        <v>0.0006656288302204906</v>
+        <v>0.0004500150959242749</v>
       </c>
       <c r="G4">
-        <v>0.0009577910519758236</v>
+        <v>0.001088387429996005</v>
       </c>
     </row>
     <row r="5">
@@ -468,22 +468,22 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0.001188790372383757</v>
+        <v>0.001201658812804533</v>
       </c>
       <c r="C5">
-        <v>0.001084988187348474</v>
+        <v>0.001176008305368081</v>
       </c>
       <c r="D5">
-        <v>0.004237696640446095</v>
+        <v>0.004445554730156915</v>
       </c>
       <c r="E5">
-        <v>0.004418567685443061</v>
+        <v>0.00477865124523066</v>
       </c>
       <c r="F5">
-        <v>0.0006604630524216918</v>
+        <v>0.0004142833327456758</v>
       </c>
       <c r="G5">
-        <v>0.001070744500120847</v>
+        <v>0.001220357443409625</v>
       </c>
     </row>
     <row r="6">
@@ -491,22 +491,22 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.001294521912579529</v>
+        <v>0.001679745655466656</v>
       </c>
       <c r="C6">
-        <v>0.001156666418470702</v>
+        <v>0.0016476146404717</v>
       </c>
       <c r="D6">
-        <v>0.003926995745983373</v>
+        <v>0.004323612383227515</v>
       </c>
       <c r="E6">
-        <v>0.004220676258568681</v>
+        <v>0.004666683957639115</v>
       </c>
       <c r="F6">
-        <v>0.0008366034580630688</v>
+        <v>0.0004098723990540881</v>
       </c>
       <c r="G6">
-        <v>0.001403960965963767</v>
+        <v>0.001488215052542385</v>
       </c>
     </row>
     <row r="7">
@@ -514,22 +514,22 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>0.001517590604924759</v>
+        <v>0.001865639735976767</v>
       </c>
       <c r="C7">
-        <v>0.001386790687984562</v>
+        <v>0.001839541008002044</v>
       </c>
       <c r="D7">
-        <v>0.003760982216174839</v>
+        <v>0.004047783367706989</v>
       </c>
       <c r="E7">
-        <v>0.004160209303889326</v>
+        <v>0.004439873751314168</v>
       </c>
       <c r="F7">
-        <v>0.0007869202365913695</v>
+        <v>0.0004289091167781525</v>
       </c>
       <c r="G7">
-        <v>0.001513460154184029</v>
+        <v>0.001763655412261706</v>
       </c>
     </row>
     <row r="8">
@@ -537,22 +537,22 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>0.001568572207966554</v>
+        <v>0.00207160736087915</v>
       </c>
       <c r="C8">
-        <v>0.001494635370427617</v>
+        <v>0.002028490434171653</v>
       </c>
       <c r="D8">
-        <v>0.00366202967283838</v>
+        <v>0.003827541405693287</v>
       </c>
       <c r="E8">
-        <v>0.004068626691659296</v>
+        <v>0.004318763880193938</v>
       </c>
       <c r="F8">
-        <v>0.0007620042633359507</v>
+        <v>0.0004223828485790697</v>
       </c>
       <c r="G8">
-        <v>0.001556515633734873</v>
+        <v>0.001864601464724572</v>
       </c>
     </row>
     <row r="9">
@@ -560,22 +560,22 @@
         <v>38</v>
       </c>
       <c r="B9">
-        <v>0.001930493082763273</v>
+        <v>0.002138238911908388</v>
       </c>
       <c r="C9">
-        <v>0.001870726676694541</v>
+        <v>0.002064040814899506</v>
       </c>
       <c r="D9">
-        <v>0.003525702957517078</v>
+        <v>0.003631561683922491</v>
       </c>
       <c r="E9">
-        <v>0.003971950945629709</v>
+        <v>0.004114598207806111</v>
       </c>
       <c r="F9">
-        <v>0.000765979747254758</v>
+        <v>0.0003817390377560066</v>
       </c>
       <c r="G9">
-        <v>0.001643719329705531</v>
+        <v>0.001891125978431931</v>
       </c>
     </row>
     <row r="10">
@@ -583,22 +583,22 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>0.002268091152489739</v>
+        <v>0.002311944754510953</v>
       </c>
       <c r="C10">
-        <v>0.002157933522415526</v>
+        <v>0.002240468931216017</v>
       </c>
       <c r="D10">
-        <v>0.003395183427021121</v>
+        <v>0.003594564975643348</v>
       </c>
       <c r="E10">
-        <v>0.004021198117262361</v>
+        <v>0.004144282205572991</v>
       </c>
       <c r="F10">
-        <v>0.0007486023619333885</v>
+        <v>0.0003526026062873929</v>
       </c>
       <c r="G10">
-        <v>0.001783957160075685</v>
+        <v>0.001963076162766782</v>
       </c>
     </row>
     <row r="11">
@@ -606,22 +606,22 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.002356773464491865</v>
+        <v>0.002542398492563723</v>
       </c>
       <c r="C11">
-        <v>0.002196079093288496</v>
+        <v>0.002457791733360862</v>
       </c>
       <c r="D11">
-        <v>0.003418840304014926</v>
+        <v>0.003506648145015241</v>
       </c>
       <c r="E11">
-        <v>0.004160593407367126</v>
+        <v>0.004160315045018363</v>
       </c>
       <c r="F11">
-        <v>0.0008027479976437672</v>
+        <v>0.0003852154189915743</v>
       </c>
       <c r="G11">
-        <v>0.002133937624508712</v>
+        <v>0.002173994699252864</v>
       </c>
     </row>
     <row r="12">
@@ -629,22 +629,22 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.002729638902956288</v>
+        <v>0.002605735815791127</v>
       </c>
       <c r="C12">
-        <v>0.002516574605173796</v>
+        <v>0.002493277798452773</v>
       </c>
       <c r="D12">
-        <v>0.003379806112571679</v>
+        <v>0.003471023374382497</v>
       </c>
       <c r="E12">
-        <v>0.004231566955186332</v>
+        <v>0.004143490452216129</v>
       </c>
       <c r="F12">
-        <v>0.0008024882607809324</v>
+        <v>0.0003622518329607017</v>
       </c>
       <c r="G12">
-        <v>0.002211771620384515</v>
+        <v>0.0023448495466473</v>
       </c>
     </row>
     <row r="13">
@@ -652,22 +652,22 @@
         <v>54</v>
       </c>
       <c r="B13">
-        <v>0.003242987854898764</v>
+        <v>0.00279489624750277</v>
       </c>
       <c r="C13">
-        <v>0.002960749788664535</v>
+        <v>0.002683360811269978</v>
       </c>
       <c r="D13">
-        <v>0.003322297182859967</v>
+        <v>0.003466280117681039</v>
       </c>
       <c r="E13">
-        <v>0.004201167171808205</v>
+        <v>0.004117447821355084</v>
       </c>
       <c r="F13">
-        <v>0.0007881629293292872</v>
+        <v>0.0003409844404619936</v>
       </c>
       <c r="G13">
-        <v>0.002315247851276973</v>
+        <v>0.002385260977686248</v>
       </c>
     </row>
     <row r="14">
@@ -675,22 +675,22 @@
         <v>58</v>
       </c>
       <c r="B14">
-        <v>0.003101870674878696</v>
+        <v>0.002825890401180257</v>
       </c>
       <c r="C14">
-        <v>0.002809255275931658</v>
+        <v>0.002718435454723108</v>
       </c>
       <c r="D14">
-        <v>0.003304632483632391</v>
+        <v>0.003394382680780842</v>
       </c>
       <c r="E14">
-        <v>0.004264896422488293</v>
+        <v>0.004125917344105374</v>
       </c>
       <c r="F14">
-        <v>0.0007699088841562465</v>
+        <v>0.0003340721934579344</v>
       </c>
       <c r="G14">
-        <v>0.00241776945858768</v>
+        <v>0.002737054505406718</v>
       </c>
     </row>
     <row r="15">
@@ -698,22 +698,22 @@
         <v>62</v>
       </c>
       <c r="B15">
-        <v>0.00336900323174195</v>
+        <v>0.002991718314846532</v>
       </c>
       <c r="C15">
-        <v>0.003081724317609356</v>
+        <v>0.002882640027354236</v>
       </c>
       <c r="D15">
-        <v>0.003337990642368521</v>
+        <v>0.003351631131273122</v>
       </c>
       <c r="E15">
-        <v>0.004510197496619471</v>
+        <v>0.00416627226741339</v>
       </c>
       <c r="F15">
-        <v>0.0008110733287792361</v>
+        <v>0.0003248326110166714</v>
       </c>
       <c r="G15">
-        <v>0.002876522129629261</v>
+        <v>0.003018926458418775</v>
       </c>
     </row>
     <row r="16">
@@ -721,22 +721,22 @@
         <v>66</v>
       </c>
       <c r="B16">
-        <v>0.00336787900611996</v>
+        <v>0.003384882492043577</v>
       </c>
       <c r="C16">
-        <v>0.003070592234271723</v>
+        <v>0.003222538579282759</v>
       </c>
       <c r="D16">
-        <v>0.003267828145561865</v>
+        <v>0.003344077160753015</v>
       </c>
       <c r="E16">
-        <v>0.004535736081091303</v>
+        <v>0.004311421994024491</v>
       </c>
       <c r="F16">
-        <v>0.0008116213383793311</v>
+        <v>0.0003607141838762641</v>
       </c>
       <c r="G16">
-        <v>0.003057277367265803</v>
+        <v>0.003144670635101474</v>
       </c>
     </row>
     <row r="17">
@@ -744,22 +744,22 @@
         <v>70</v>
       </c>
       <c r="B17">
-        <v>0.003595802039239439</v>
+        <v>0.003157456580108625</v>
       </c>
       <c r="C17">
-        <v>0.003233805774208253</v>
+        <v>0.003045120571145961</v>
       </c>
       <c r="D17">
-        <v>0.003259802286954738</v>
+        <v>0.003308880832095176</v>
       </c>
       <c r="E17">
-        <v>0.004524564566201389</v>
+        <v>0.004305748471321468</v>
       </c>
       <c r="F17">
-        <v>0.000812901268430342</v>
+        <v>0.0003549334109863158</v>
       </c>
       <c r="G17">
-        <v>0.003376867832654962</v>
+        <v>0.003266034214489208</v>
       </c>
     </row>
     <row r="18">
@@ -767,22 +767,22 @@
         <v>74</v>
       </c>
       <c r="B18">
-        <v>0.003901098609554726</v>
+        <v>0.003509071632170212</v>
       </c>
       <c r="C18">
-        <v>0.003539202487659808</v>
+        <v>0.003337850535880054</v>
       </c>
       <c r="D18">
-        <v>0.003222224778035803</v>
+        <v>0.003364766755034443</v>
       </c>
       <c r="E18">
-        <v>0.004477088619199567</v>
+        <v>0.004678435377522907</v>
       </c>
       <c r="F18">
-        <v>0.0009400050932433072</v>
+        <v>0.0003520642676240602</v>
       </c>
       <c r="G18">
-        <v>0.003924079888924395</v>
+        <v>0.003345552440263001</v>
       </c>
     </row>
     <row r="19">
@@ -790,22 +790,22 @@
         <v>78</v>
       </c>
       <c r="B19">
-        <v>0.004011772913671643</v>
+        <v>0.00374181217928245</v>
       </c>
       <c r="C19">
-        <v>0.003644972478634451</v>
+        <v>0.003549045916447609</v>
       </c>
       <c r="D19">
-        <v>0.003232895579270573</v>
+        <v>0.003362832828459231</v>
       </c>
       <c r="E19">
-        <v>0.004672342326674686</v>
+        <v>0.004769701631606842</v>
       </c>
       <c r="F19">
-        <v>0.0009254798366046779</v>
+        <v>0.0003216202830469855</v>
       </c>
       <c r="G19">
-        <v>0.00395514788152817</v>
+        <v>0.003429042066429245</v>
       </c>
     </row>
     <row r="20">
@@ -813,22 +813,22 @@
         <v>82</v>
       </c>
       <c r="B20">
-        <v>0.004199686449330576</v>
+        <v>0.003884917492896733</v>
       </c>
       <c r="C20">
-        <v>0.003818157604200377</v>
+        <v>0.003737527030542584</v>
       </c>
       <c r="D20">
-        <v>0.003194686875106275</v>
+        <v>0.003348967286676865</v>
       </c>
       <c r="E20">
-        <v>0.004826646205748093</v>
+        <v>0.004872797677383165</v>
       </c>
       <c r="F20">
-        <v>0.0009240249631240262</v>
+        <v>0.0003188629340463245</v>
       </c>
       <c r="G20">
-        <v>0.003997852802407787</v>
+        <v>0.003485873861488136</v>
       </c>
     </row>
     <row r="21">
@@ -836,22 +836,22 @@
         <v>86</v>
       </c>
       <c r="B21">
-        <v>0.004408731591793795</v>
+        <v>0.003829594692452843</v>
       </c>
       <c r="C21">
-        <v>0.004018837724421758</v>
+        <v>0.003731992272113006</v>
       </c>
       <c r="D21">
-        <v>0.003204874937606831</v>
+        <v>0.003341193020796008</v>
       </c>
       <c r="E21">
-        <v>0.004909385059970522</v>
+        <v>0.004858046409110848</v>
       </c>
       <c r="F21">
-        <v>0.000889217777644304</v>
+        <v>0.0003099194655254578</v>
       </c>
       <c r="G21">
-        <v>0.004194871045458052</v>
+        <v>0.003571324141553923</v>
       </c>
     </row>
     <row r="22">
@@ -859,22 +859,22 @@
         <v>90</v>
       </c>
       <c r="B22">
-        <v>0.004921738778468986</v>
+        <v>0.003931441725807983</v>
       </c>
       <c r="C22">
-        <v>0.004461774093906308</v>
+        <v>0.003724888583002097</v>
       </c>
       <c r="D22">
-        <v>0.003200424809574995</v>
+        <v>0.003364497117593884</v>
       </c>
       <c r="E22">
-        <v>0.005032093742919286</v>
+        <v>0.004924179125578841</v>
       </c>
       <c r="F22">
-        <v>0.0008581867172318301</v>
+        <v>0.0003107570631371681</v>
       </c>
       <c r="G22">
-        <v>0.004507686500160773</v>
+        <v>0.003738384055356206</v>
       </c>
     </row>
     <row r="23">
@@ -882,22 +882,22 @@
         <v>94</v>
       </c>
       <c r="B23">
-        <v>0.004884958642035029</v>
+        <v>0.004359756552736262</v>
       </c>
       <c r="C23">
-        <v>0.004473657481368726</v>
+        <v>0.004119129292387367</v>
       </c>
       <c r="D23">
-        <v>0.003192084986318872</v>
+        <v>0.00334733183470354</v>
       </c>
       <c r="E23">
-        <v>0.005042392926220727</v>
+        <v>0.004965548135045983</v>
       </c>
       <c r="F23">
-        <v>0.0008958873291355923</v>
+        <v>0.0002729247370456046</v>
       </c>
       <c r="G23">
-        <v>0.004614227750629581</v>
+        <v>0.003785645428332679</v>
       </c>
     </row>
     <row r="24">
@@ -905,22 +905,22 @@
         <v>98</v>
       </c>
       <c r="B24">
-        <v>0.004869025586123136</v>
+        <v>0.004312808192560386</v>
       </c>
       <c r="C24">
-        <v>0.004516657282829848</v>
+        <v>0.004156181037518404</v>
       </c>
       <c r="D24">
-        <v>0.003237910977682124</v>
+        <v>0.003310765898359072</v>
       </c>
       <c r="E24">
-        <v>0.005330649596302512</v>
+        <v>0.005028872953334705</v>
       </c>
       <c r="F24">
-        <v>0.0009471897698897219</v>
+        <v>0.0003276735935183875</v>
       </c>
       <c r="G24">
-        <v>0.004808207655814553</v>
+        <v>0.003916475724193937</v>
       </c>
     </row>
   </sheetData>
